--- a/templates/dataplant/MIMS_-_Metagenomics.xlsx
+++ b/templates/dataplant/MIMS_-_Metagenomics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -216,6 +216,57 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>eukaryotic soil metagenome</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_2977533</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>forest biome</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:01000174</t>
+  </si>
+  <si>
+    <t>coniferous forest biome</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:01000196</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:00001998</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C16636</t>
+  </si>
+  <si>
+    <t>+50.55° / +6.21°</t>
+  </si>
+  <si>
+    <t>Illumina MiSeq</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/EFO:0004205</t>
   </si>
 </sst>
 </file>
@@ -908,16 +959,16 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -926,43 +977,43 @@
         <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s">
         <v>67</v>
@@ -971,13 +1022,13 @@
         <v>67</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="Z2" t="s">
         <v>67</v>

--- a/templates/dataplant/MIMS_-_Metagenomics.xlsx
+++ b/templates/dataplant/MIMS_-_Metagenomics.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -140,22 +140,22 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
-    <t>Characteristic [Organism]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0041)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0041)</t>
-  </si>
-  <si>
-    <t>Characteristic [Collection date]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0080)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0080)</t>
+    <t>Characteristic [organism]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Characteristic [Collection Date]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C81286)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C81286)</t>
   </si>
   <si>
     <t>Characteristic [biome]</t>
@@ -353,12 +353,12 @@
   </autoFilter>
   <tableColumns count="26">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [Organism]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (MIAPPE:0041)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (MIAPPE:0041)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Characteristic [Collection date]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (MIAPPE:0080)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (MIAPPE:0080)" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Characteristic [organism]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [Collection Date]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (NCIT:C81286)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (NCIT:C81286)" totalsRowFunction="none"/>
     <tableColumn id="8" name="Characteristic [biome]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (ENVO:00000428)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (ENVO:00000428)" totalsRowFunction="none"/>
